--- a/Campionato/U16P/reportistica.xlsx
+++ b/Campionato/U16P/reportistica.xlsx
@@ -913,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>58</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>100</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>107</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>71</v>
@@ -1061,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>120</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>72</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>140</v>

--- a/Campionato/U16P/reportistica.xlsx
+++ b/Campionato/U16P/reportistica.xlsx
@@ -506,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>270</v>
@@ -617,10 +617,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>371</v>
@@ -654,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>363</v>
@@ -728,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>295</v>
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>187</v>
@@ -802,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>363</v>
@@ -839,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>266</v>
@@ -876,10 +876,10 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>167</v>
@@ -913,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>58</v>
@@ -1061,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>120</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>140</v>
@@ -1427,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>50</v>
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>117</v>
@@ -1649,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>188</v>

--- a/Campionato/U16P/reportistica.xlsx
+++ b/Campionato/U16P/reportistica.xlsx
@@ -506,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>270</v>
@@ -580,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>138</v>
@@ -617,10 +617,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>371</v>
@@ -654,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>363</v>
@@ -728,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>295</v>
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>187</v>
@@ -802,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>363</v>
@@ -839,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>266</v>
@@ -876,10 +876,10 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>167</v>
@@ -913,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>58</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>100</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>107</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>71</v>
@@ -1061,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>120</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>72</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
         <v>140</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>40</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>38</v>
@@ -1427,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>50</v>
@@ -1501,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>25</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>33</v>
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>117</v>
@@ -1649,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>188</v>
